--- a/update_methane.xlsx
+++ b/update_methane.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/852953b44cd0ef15/Desktop/final project/Methane_emissions_analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C3A24BD2-D321-40DA-9963-1771B3022B9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{02116939-83E6-46F0-B01B-10F2B090BCB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10380" yWindow="975" windowWidth="24180" windowHeight="13695" xr2:uid="{D77F0496-E165-435D-86DE-EAAF370D9FD9}"/>
+    <workbookView xWindow="10140" yWindow="1410" windowWidth="24180" windowHeight="13695" xr2:uid="{5900CDC5-E4B1-4A44-859B-6CA42F6BE31C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,54 +35,36 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="16">
-  <si>
-    <t>year</t>
-  </si>
-  <si>
-    <t>country</t>
-  </si>
-  <si>
-    <t>country code</t>
-  </si>
-  <si>
-    <t>indicator</t>
-  </si>
-  <si>
-    <t>indicator code</t>
-  </si>
-  <si>
-    <t>emission</t>
-  </si>
-  <si>
-    <t>Aruba</t>
-  </si>
-  <si>
-    <t>ABW</t>
-  </si>
-  <si>
-    <t>GDP (current US$)</t>
-  </si>
-  <si>
-    <t>NY.GDP.MKTP.CD</t>
-  </si>
-  <si>
-    <t>Africa Eastern and Southern</t>
-  </si>
-  <si>
-    <t>AFE</t>
-  </si>
-  <si>
-    <t>Afghanistan</t>
-  </si>
-  <si>
-    <t>AFG</t>
-  </si>
-  <si>
-    <t>Africa Western and Central</t>
-  </si>
-  <si>
-    <t>AFW</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="10">
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>Sector</t>
+  </si>
+  <si>
+    <t>Unit</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>Total including LUCF</t>
+  </si>
+  <si>
+    <t>MTCO2e</t>
+  </si>
+  <si>
+    <t>Total excluding LUCF</t>
+  </si>
+  <si>
+    <t>Russia</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Emissions</t>
   </si>
 </sst>
 </file>
@@ -433,273 +415,241 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B6C1690-6A56-4680-BEA8-AB5749063FED}">
-  <dimension ref="A1:F13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CE8B399-F9AF-4886-807D-204F650C2BC0}">
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F13"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
       <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2016</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2">
-        <v>2983636871.5083799</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="E2">
+        <v>1242.43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2016</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3">
-        <v>873354876607.31738</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="E3">
+        <v>1242.1500000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2016</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4">
-        <v>18116562464.90881</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="E4">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2016</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5">
-        <v>690543020916.22913</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="E5">
+        <v>852.55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2017</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6">
-        <v>3092430167.5977654</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="E6">
+        <v>1239.28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2017</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7">
-        <v>985355704660.08289</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="E7">
+        <v>1239.1300000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2017</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8">
-        <v>18753469630.258575</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="E8">
+        <v>852.12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2017</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9">
-        <v>683741574626.19202</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="E9">
+        <v>850.17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2018</v>
       </c>
       <c r="B10" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C10" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F10">
-        <v>3202188606.9289331</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="E10">
+        <v>1238.95</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2018</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F11">
-        <v>1012853224905.787</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="E11">
+        <v>1238.6300000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2018</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C12" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="D12" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" t="s">
-        <v>9</v>
-      </c>
-      <c r="F12">
-        <v>18053228578.887756</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="E12">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2018</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C13" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" t="s">
-        <v>9</v>
-      </c>
-      <c r="F13">
-        <v>741691624372.78796</v>
+        <v>5</v>
+      </c>
+      <c r="E13">
+        <v>849.57</v>
       </c>
     </row>
   </sheetData>
